--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_Monocyte_Macrophages_DCs_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_Monocyte_Macrophages_DCs_speed_coherence.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.391242265701294</v>
+        <v>8.939330101013184</v>
       </c>
       <c r="C2" t="n">
-        <v>2.872317790985107</v>
+        <v>5.228888988494873</v>
       </c>
       <c r="D2" t="n">
-        <v>2.315530061721802</v>
+        <v>4.353279113769531</v>
       </c>
       <c r="E2" t="n">
-        <v>3.347380876541138</v>
+        <v>6.062596321105957</v>
       </c>
       <c r="F2" t="n">
-        <v>1.99728262424469</v>
+        <v>5.562290668487549</v>
       </c>
       <c r="G2" t="n">
-        <v>2.052297115325928</v>
+        <v>4.541982650756836</v>
       </c>
       <c r="H2" t="n">
-        <v>2.343448162078857</v>
+        <v>4.208158016204834</v>
       </c>
       <c r="I2" t="n">
-        <v>2.015957355499268</v>
+        <v>3.83191180229187</v>
       </c>
       <c r="J2" t="n">
-        <v>2.732161998748779</v>
+        <v>4.646617889404297</v>
       </c>
       <c r="K2" t="n">
-        <v>2.703793048858643</v>
+        <v>4.770476341247559</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.735821899419986</v>
+        <v>0.9076798575133392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7918619193778133</v>
+        <v>0.842918546865303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79979733676405</v>
+        <v>0.874750981083164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7841958364560491</v>
+        <v>0.8493283087747139</v>
       </c>
       <c r="F3" t="n">
-        <v>0.757644331973532</v>
+        <v>0.8926849278657796</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7112354926160864</v>
+        <v>0.8415898737208597</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7235612643176111</v>
+        <v>0.8569083234720063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.759214737313859</v>
+        <v>0.8687146419987959</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7346601397604555</v>
+        <v>0.7912421357982299</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6819038658306517</v>
+        <v>0.7701054991237701</v>
       </c>
     </row>
   </sheetData>
